--- a/01_Projectplan/02_Strategien/Trading Kalkulation.xlsx
+++ b/01_Projectplan/02_Strategien/Trading Kalkulation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Git\02_Python\07_OrderPilot-AI\01_Projectplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Git\02_Python\07_OrderPilot-AI\01_Projectplan\02_Strategien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8339171C-1095-449C-966F-A1AFACDE4741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B11643-F23A-41EB-9997-6DCB2AA66FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C4BF899-C376-4684-96EA-E2B5458DACC4}"/>
   </bookViews>
@@ -37,8 +37,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,8 +72,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -409,616 +410,617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5309CA0-A472-41AC-A3D1-5C126550DCD0}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="B1" s="1">
         <f>A1*$D$1</f>
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2">
-        <v>0.2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>(A1+B1)</f>
-        <v>120</v>
+        <v>5225</v>
       </c>
       <c r="B2" s="1">
         <f>A2*$D$1</f>
-        <v>24</v>
+        <v>235.125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A60" si="0">(A2+B2)</f>
-        <v>144</v>
+        <v>5460.125</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B60" si="1">A3*$D$1</f>
-        <v>28.8</v>
+        <v>245.705625</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>172.8</v>
+        <v>5705.8306249999996</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="1"/>
-        <v>34.56</v>
+        <v>256.762378125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>207.36</v>
+        <v>5962.593003125</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
-        <v>41.472000000000008</v>
+        <v>268.316685140625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>248.83200000000002</v>
+        <v>6230.9096882656249</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>49.766400000000004</v>
+        <v>280.39093597195313</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>298.59840000000003</v>
+        <v>6511.3006242375777</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
-        <v>59.719680000000011</v>
+        <v>293.00852809069096</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>358.31808000000001</v>
+        <v>6804.3091523282683</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
-        <v>71.663616000000005</v>
+        <v>306.19391185477207</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>429.981696</v>
+        <v>7110.5030641830399</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
-        <v>85.996339200000008</v>
+        <v>319.97263788823676</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>515.97803520000002</v>
+        <v>7430.4757020712768</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>103.19560704000001</v>
+        <v>334.37140659320744</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>619.17364224000005</v>
+        <v>7764.847108664484</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>123.83472844800002</v>
+        <v>349.41811988990179</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>743.00837068800001</v>
+        <v>8114.2652285543854</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>148.60167413760001</v>
+        <v>365.14193528494735</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>891.61004482559997</v>
+        <v>8479.4071638393325</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>178.32200896512001</v>
+        <v>381.57332237276995</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>1069.9320537907199</v>
+        <v>8860.9804862121018</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>213.98641075814399</v>
+        <v>398.74412187954459</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>1283.918464548864</v>
+        <v>9259.7246080916466</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>256.78369290977281</v>
+        <v>416.68760736412406</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>1540.7021574586367</v>
+        <v>9676.4122154557699</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>308.14043149172738</v>
+        <v>435.43854969550961</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>1848.8425889503642</v>
+        <v>10111.850765151279</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>369.76851779007285</v>
+        <v>455.03328443180754</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>2218.6111067404372</v>
+        <v>10566.884049583086</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>443.72222134808749</v>
+        <v>475.50978223123889</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>2662.3333280885245</v>
+        <v>11042.393831814325</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
-        <v>532.46666561770496</v>
+        <v>496.90772243164457</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>3194.7999937062295</v>
+        <v>11539.301554245969</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>638.95999874124595</v>
+        <v>519.26856994106856</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>3833.7599924474753</v>
+        <v>12058.570124187037</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>766.75199848949512</v>
+        <v>542.63565558841663</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>4600.5119909369705</v>
+        <v>12601.205779775453</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>920.1023981873941</v>
+        <v>567.05426008989537</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>5520.6143891243646</v>
+        <v>13168.260039865349</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>1104.1228778248731</v>
+        <v>592.57170179394063</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>6624.7372669492379</v>
+        <v>13760.831741659289</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>1324.9474533898476</v>
+        <v>619.23742837466796</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>7949.6847203390853</v>
+        <v>14380.069170033958</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>1589.9369440678172</v>
+        <v>647.10311265152802</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>9539.6216644069027</v>
+        <v>15027.172282685486</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>1907.9243328813807</v>
+        <v>676.22275272084687</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>11447.545997288284</v>
+        <v>15703.395035406333</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>2289.5091994576569</v>
+        <v>706.6527765932849</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>13737.05519674594</v>
+        <v>16410.047811999619</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>2747.4110393491883</v>
+        <v>738.45215153998276</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>16484.466236095126</v>
+        <v>17148.499963539602</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>3296.8932472190254</v>
+        <v>771.68249835928202</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>19781.359483314151</v>
+        <v>17920.182461898883</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>3956.2718966628304</v>
+        <v>806.40821078544968</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>23737.631379976981</v>
+        <v>18726.590672684331</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>4747.5262759953966</v>
+        <v>842.69658027079493</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>28485.157655972376</v>
+        <v>19569.287252955128</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>5697.031531194476</v>
+        <v>880.61792638298073</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>34182.189187166849</v>
+        <v>20449.905179338108</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>6836.4378374333701</v>
+        <v>920.24573307021478</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>41018.627024600217</v>
+        <v>21370.150912408324</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>8203.7254049200437</v>
+        <v>961.65679105837455</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>49222.352429520259</v>
+        <v>22331.8077034667</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>9844.4704859040521</v>
+        <v>1004.9313466560014</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>59066.822915424309</v>
+        <v>23336.739050122702</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v>11813.364583084862</v>
+        <v>1050.1532572555216</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>70880.187498509171</v>
+        <v>24386.892307378224</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>14176.037499701835</v>
+        <v>1097.4101538320201</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>85056.224998211008</v>
+        <v>25484.302461210245</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>17011.244999642204</v>
+        <v>1146.793610754461</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>102067.46999785322</v>
+        <v>26631.096071964705</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>20413.493999570645</v>
+        <v>1198.3993232384116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>122480.96399742385</v>
+        <v>27829.495395203117</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
-        <v>24496.192799484772</v>
+        <v>1252.3272927841401</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>146977.15679690862</v>
+        <v>29081.822687987256</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
-        <v>29395.431359381724</v>
+        <v>1308.6820209594264</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>176372.58815629035</v>
+        <v>30390.504708946683</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
-        <v>35274.517631258073</v>
+        <v>1367.5727119026008</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>211647.10578754841</v>
+        <v>31758.077420849284</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
-        <v>42329.421157509685</v>
+        <v>1429.1134839382178</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>253976.52694505808</v>
+        <v>33187.190904787501</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
-        <v>50795.305389011621</v>
+        <v>1493.4235907154375</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>304771.83233406971</v>
+        <v>34680.614495502938</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
-        <v>60954.366466813946</v>
+        <v>1560.627652297632</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>365726.19880088366</v>
+        <v>36241.242147800571</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
-        <v>73145.23976017673</v>
+        <v>1630.8558966510257</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>438871.43856106041</v>
+        <v>37872.098044451595</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
-        <v>87774.287712212084</v>
+        <v>1704.2444120003217</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
-        <v>526645.72627327254</v>
+        <v>39576.342456451915</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
-        <v>105329.14525465452</v>
+        <v>1780.9354105403361</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
-        <v>631974.871527927</v>
+        <v>41357.277866992248</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
-        <v>126394.97430558541</v>
+        <v>1861.0775040146511</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
-        <v>758369.84583351237</v>
+        <v>43218.355371006903</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
-        <v>151673.96916670247</v>
+        <v>1944.8259916953104</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
-        <v>910043.81500021485</v>
+        <v>45163.181362702213</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
-        <v>182008.76300004299</v>
+        <v>2032.3431613215996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
-        <v>1092052.5780002577</v>
+        <v>47195.524524023815</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
-        <v>218410.51560005156</v>
+        <v>2123.7986035810718</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
-        <v>1310463.0936003092</v>
+        <v>49319.32312760489</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
-        <v>262092.61872006184</v>
+        <v>2219.3695407422201</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
-        <v>1572555.7123203711</v>
+        <v>51538.69266834711</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
-        <v>314511.14246407425</v>
+        <v>2319.2411700756197</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
-        <v>1887066.8547844454</v>
+        <v>53857.93383842273</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>377413.37095688912</v>
+        <v>2423.6070227290229</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
-        <v>2264480.2257413343</v>
+        <v>56281.540861151756</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>452896.04514826689</v>
+        <v>2532.6693387518289</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
-        <v>2717376.2708896012</v>
+        <v>58814.210199903588</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>543475.25417792029</v>
+        <v>2646.6394589956612</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
-        <v>3260851.5250675213</v>
+        <v>61460.849658899249</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
-        <v>652170.30501350434</v>
+        <v>2765.738234650466</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
-        <v>3913021.8300810256</v>
+        <v>64226.587893549717</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
-        <v>782604.36601620517</v>
+        <v>2890.196455209737</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
-        <v>4695626.1960972305</v>
+        <v>67116.784348759451</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
-        <v>939125.2392194462</v>
+        <v>3020.2552956941754</v>
       </c>
     </row>
   </sheetData>
